--- a/docs/Data/RollerCoasters.xlsx
+++ b/docs/Data/RollerCoasters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/55a6387db2d930ac/Documents/BYUI/Lesson Presentations/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{58473F99-8472-4B81-9DD1-6B42AFB425D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B2087EA-56DB-4EE6-9DA2-8E81576F71C2}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{58473F99-8472-4B81-9DD1-6B42AFB425D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{835734CE-8B5E-4EB5-ACD1-4835D1AB4E28}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="19440" windowHeight="10884" xr2:uid="{57036C16-3336-49D2-B394-4D7FDAC2B2AE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="19452" windowHeight="10908" xr2:uid="{57036C16-3336-49D2-B394-4D7FDAC2B2AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Roller Coasters" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Rollar Coaster speed and height for 25 randomly selected roller coasters from rcdb.com.</t>
-  </si>
-  <si>
     <t>Height</t>
   </si>
   <si>
@@ -47,6 +44,9 @@
   </si>
   <si>
     <t>Speed is in miles per hour, height is in feet.</t>
+  </si>
+  <si>
+    <t>Rollar Coaster speed and height for 24 randomly selected roller coasters from rcdb.com.</t>
   </si>
 </sst>
 </file>
@@ -418,17 +418,17 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -455,7 +455,7 @@
         <v>140</v>
       </c>
       <c r="E4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -466,7 +466,7 @@
         <v>230</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
